--- a/biology/Botanique/Salsepareille_d'Europe/Salsepareille_d'Europe.xlsx
+++ b/biology/Botanique/Salsepareille_d'Europe/Salsepareille_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smilax aspera · Salsepareille
 La Salsepareille ou Salsepareille d'Europe (Smilax aspera L.) est une espèce de plantes monocotylédones de la famille des Smilacacées. Elle est parfois appelée liseron épineux. On consomme les jeunes pousses et, de même que plusieurs autres plantes du genre Smilax, elle est utilisée pour ses vertus médicinales.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Salsepareille d'Europe est un sous-arbrisseau ou liane vivace. Elle mesure de 1 à 3 m de haut et possède une tige volubile, ligneuse, sarmenteuse et épineuse. Ses feuilles alternes, persistantes, luisantes, sont en forme de cœur ou de pique, et munies de deux stipules transformés en vrilles. Le limbe coriace est parcouru de 5 à 7 nervures à tracé pseudo-parallèle se rejoignant au sommet, mais, fait exceptionnel pour une monocotylédone, réunies par un réseau de nervures secondaires. Le bord du limbe est épineux.
 C’est une plante dioïque, à fleurs petites, blanc jaunâtre, réunies en petites ombelles. Les fruits petits et globuleux, parfois ovales, ressemblent à des groseilles, sont rouge foncé. La plante contient des saponines.
-La floraison, très odorante, a lieu d’août à novembre en région méditerranéenne[1]. Les fruits arrivent à maturité en novembre-décembre.
+La floraison, très odorante, a lieu d’août à novembre en région méditerranéenne. Les fruits arrivent à maturité en novembre-décembre.
 On peut confondre cette plante avec le Tamier commun (Dioscorea communis), mais ce dernier a une tige sans épine.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>S. aspera subsp. aspera
 S. aspera subsp. balearica
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce pousse[2],[3] dans les terres sèches :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce pousse, dans les terres sèches :
 du pourtour méditerranéen (Espagne, France, Italie, ex-Yougoslavie, Grèce, Turquie, Liban, Syrie, Jordanie, Libye, Algérie, Maroc) ;
 en Afrique de l’est et du centre ;
 en Asie (Inde, Népal, Chine du sud).
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il s’agit d’un emprunt au portugais salsaparrilha, lui-même emprunté (avec altération due à l’influence de salsa « persil ») à l’espagnol zarzaparrilla « salsepareille », composé de zarza « ronce » et de parrilla « treille », dérivé diminutif de parra « treille », zarza et parra étant d’origine inconnue, probablement préromaine[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il s’agit d’un emprunt au portugais salsaparrilha, lui-même emprunté (avec altération due à l’influence de salsa « persil ») à l’espagnol zarzaparrilla « salsepareille », composé de zarza « ronce » et de parrilla « treille », dérivé diminutif de parra « treille », zarza et parra étant d’origine inconnue, probablement préromaine.
 esp. zarzaparrilla (zarza ronce, parrilla treille) ⇒ port. salsaparrilha ⇒ fr. salsepareille</t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,24 +667,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usages médicinaux
-Comme plante médicinale, elle a été utilisée contre le rhumatisme et certaines maladies de peau (eczéma, psoriasis), contre la grippe, l'anorexie ou la goutte.
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme plante médicinale, elle a été utilisée contre le rhumatisme et certaines maladies de peau (eczéma, psoriasis), contre la grippe, l'anorexie ou la goutte.
 Elle a une action diurétique et diaphorétique, car elle active la circulation.
 Seules ses racines sont utilisées.
-Des salsepareilles ont été importées de Nouvelle-Espagne aux XVIe – XVIIe siècles, comme plantes médicinales. Le médecin de Séville, Nicolas Monardes (1493-1588), qui l’a dit fort semblable à notre salsepareille[5], ne savait pas qu’il s’agissait d’espèces différentes (Smilax aristolochiifolia Mill.[6], Smilax febrifuga, Smilax regelii).
-Elle contient des phyto-stérols et des formes de stéroïdes, on pense donc qu’elle joue sur les taux de testostérone[7].
-Usages alimentaires
-Jeunes pousses
-Les parties toutes jeunes des branches de la salsepareille sont comestibles, crues (en Espagne par exemple) ou cuites. On les cueille au printemps, rougeâtres et très tendres. Elles ont une saveur légèrement amère agréable, et elles peuvent être préparées comme les asperges[8],[9].
-En Turquie et Italie, après les avoir fait bouillir, elles sont servies avec de l'huile d’olive et du citron ou dans des omelettes. Elles sont aussi appréciées en Bosnie[9].
-Fleurs
-Dans le midi de la France, infusées dans de l'eau-de-vie avec un sirop de sucre, elles servent à fabriquer une liqueur[9].
-Racines
-Une boisson espagnole (dite Zarzaparilla) était produite avec ses racines[9].
-Fruits
-Ses baies, si elles ne sont pas vraiment toxiques, ne sont généralement pas considérées comme consommables[réf. souhaitée] mais bien mûres, elles ont servi à faire des confitures en Sicile[9].
-Plante d'ornement
-On la retrouve cultivée à cet usage dans divers parcs et jardins.
+Des salsepareilles ont été importées de Nouvelle-Espagne aux XVIe – XVIIe siècles, comme plantes médicinales. Le médecin de Séville, Nicolas Monardes (1493-1588), qui l’a dit fort semblable à notre salsepareille, ne savait pas qu’il s’agissait d’espèces différentes (Smilax aristolochiifolia Mill., Smilax febrifuga, Smilax regelii).
+Elle contient des phyto-stérols et des formes de stéroïdes, on pense donc qu’elle joue sur les taux de testostérone.
 </t>
         </is>
       </c>
@@ -675,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Salsepareille_d%27Europe</t>
+          <t>Salsepareille_d'Europe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,10 +703,214 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jeunes pousses</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parties toutes jeunes des branches de la salsepareille sont comestibles, crues (en Espagne par exemple) ou cuites. On les cueille au printemps, rougeâtres et très tendres. Elles ont une saveur légèrement amère agréable, et elles peuvent être préparées comme les asperges,.
+En Turquie et Italie, après les avoir fait bouillir, elles sont servies avec de l'huile d’olive et du citron ou dans des omelettes. Elles sont aussi appréciées en Bosnie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le midi de la France, infusées dans de l'eau-de-vie avec un sirop de sucre, elles servent à fabriquer une liqueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Racines</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une boisson espagnole (dite Zarzaparilla) était produite avec ses racines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses baies, si elles ne sont pas vraiment toxiques, ne sont généralement pas considérées comme consommables[réf. souhaitée] mais bien mûres, elles ont servi à faire des confitures en Sicile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Usages divers</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plante d'ornement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve cultivée à cet usage dans divers parcs et jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Parmi les consommateurs, on trouve :
 la chenille du papillon de nuit, le Bombyx du pin (Dendrolimus pini) (Lasiocampidae) ;
@@ -702,31 +919,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Salsepareille_d%27Europe</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>La salsepareille est le mets favori des Schtroumpfs.
 Dans le film Charlie Chan aux courses (Charlie Chan at the Race Track) réalisé par H. Bruce Humberstone en 1936 , c'est la boisson commandée par Charlie Chan au serveur sur le bateau.
@@ -748,31 +967,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Salsepareille_d%27Europe</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Salsepareille_d'Europe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salsepareille_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Autre salsepareille</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Québec, on nomme salsepareille une autre espèce de plante, que l’on trouve communément dans les sous-bois d'érables et conifères : l'Aralia nudicaulis L., de la famille des Araliacées, celle du lierre et du ginseng. La plante porte trois tiges sur un pied. La fleur, lorsque présente, part du pied et les fruits deviennent bleu foncé en murissant. Son rhizome se développe à l'horizontale à fleur de terre. Cette plante est utilisée en décoction comme anti-stress, régulateur de la pression sanguine et stimulant général.
 Le nom de « salsepareille indigène » désigne aussi le Houblon (Humulus lupulus).
